--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/pregnancy_registration.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/pregnancy_registration.xlsx
@@ -533,10 +533,10 @@
     <t xml:space="preserve">r_is_expectant_now</t>
   </si>
   <si>
-    <t xml:space="preserve">${patient_name} is currently pregnant. She has done ${no_of_antenatal_visits} antenatal visits so far and estimates her delivery date to be ${estimated_delivery_date}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;${patient_name} ana uja uzito.&lt;/p&gt;</t>
+    <t xml:space="preserve">&lt;p&gt;Currently pregnant. &lt;/p&gt;&lt;p&gt;${no_of_antenatal_visits} antenatal visits.&lt;/p&gt; &lt;p&gt;Estimated delivery date is ${estimated_delivery_date}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Ana uja uzito.&lt;/p&gt;</t>
   </si>
   <si>
     <r>
@@ -553,6 +553,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">is_pregnancy_confirmed</t>
     </r>
@@ -570,7 +571,7 @@
     <t xml:space="preserve">r_pregnancy_claim</t>
   </si>
   <si>
-    <t xml:space="preserve">${patient_name} claims she is pregnant, but has not had the pregnancy confirmed.</t>
+    <t xml:space="preserve">&lt;p&gt;Pregnancy is not  confirmed.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">${is_expectant_now} = ‘yes’ and ${is_pregnancy_confirmed} = ‘no’</t>
@@ -579,7 +580,7 @@
     <t xml:space="preserve">r_is_not_expectant</t>
   </si>
   <si>
-    <t xml:space="preserve">${patient_name} is not pregnant.</t>
+    <t xml:space="preserve">Not pregnant.</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;${patient_name} hana ujauzito</t>
@@ -755,7 +756,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -796,11 +797,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -1018,23 +1014,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1046,27 +1042,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1150,11 +1146,11 @@
   <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="C59" activeCellId="0" sqref="C59"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4819,7 +4815,7 @@
       </c>
       <c r="C2" s="23" t="n">
         <f aca="true">NOW()</f>
-        <v>45225.8657131689</v>
+        <v>45254.4974078718</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>174</v>

--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/pregnancy_registration.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/pregnancy_registration.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="189">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -534,9 +534,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;Currently pregnant. &lt;/p&gt;&lt;p&gt;${no_of_antenatal_visits} antenatal visits.&lt;/p&gt; &lt;p&gt;Estimated delivery date is ${estimated_delivery_date}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Ana uja uzito.&lt;/p&gt;</t>
   </si>
   <si>
     <r>
@@ -1146,11 +1143,11 @@
   <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="bottomRight" activeCell="C52" activeCellId="0" sqref="C52"/>
+      <selection pane="bottomLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2778,12 +2775,10 @@
       <c r="C51" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>128</v>
-      </c>
+      <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -2806,15 +2801,15 @@
         <v>80</v>
       </c>
       <c r="B52" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -2837,17 +2832,17 @@
         <v>80</v>
       </c>
       <c r="B53" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="D53" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -2870,13 +2865,13 @@
         <v>80</v>
       </c>
       <c r="B54" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="D54" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -2901,17 +2896,17 @@
         <v>80</v>
       </c>
       <c r="B55" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>142</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>125</v>
@@ -2936,15 +2931,15 @@
         <v>80</v>
       </c>
       <c r="B56" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
@@ -2967,15 +2962,15 @@
         <v>80</v>
       </c>
       <c r="B57" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>148</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
@@ -2998,15 +2993,15 @@
         <v>80</v>
       </c>
       <c r="B58" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>125</v>
@@ -3031,15 +3026,15 @@
         <v>80</v>
       </c>
       <c r="B59" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
@@ -3062,15 +3057,15 @@
         <v>80</v>
       </c>
       <c r="B60" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
@@ -3269,7 +3264,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -3297,30 +3292,30 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4766,25 +4761,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="20" t="s">
         <v>170</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>171</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
@@ -4808,24 +4803,24 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="C2" s="23" t="n">
         <f aca="true">NOW()</f>
-        <v>45254.4974078718</v>
+        <v>45274.5619165099</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>174</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>175</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -11762,31 +11757,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>179</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>182</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
@@ -11805,13 +11800,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -11836,13 +11831,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>162</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>163</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -11892,13 +11887,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="21" t="s">
         <v>184</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>185</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -11923,13 +11918,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>186</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>187</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -11954,13 +11949,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>188</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>189</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
